--- a/test_results/script_data_summary.xlsx
+++ b/test_results/script_data_summary.xlsx
@@ -448,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="69" customWidth="1" min="1" max="1"/>
+    <col width="72" customWidth="1" min="1" max="1"/>
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="43" customWidth="1" min="4" max="4"/>
@@ -457,29 +457,29 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>Page URL</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>testcase</t>
+          <t>Test Case</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>Comments</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/</t>
+          <t>https://www.alojamiento.io/property/mall-of-i-stanbul-3/BC-6975002/</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
